--- a/examples/web-stuff/artifact/script/assert-web-elements.xlsx
+++ b/examples/web-stuff/artifact/script/assert-web-elements.xlsx
@@ -45,9 +45,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14242" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14816" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1778,6 +1778,33 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="412" x14ac:knownFonts="1">
+  <fonts count="428" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4394,8 +4421,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="709">
+  <fills count="736">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8409,8 +8537,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="763">
+  <borders count="795">
     <border>
       <left/>
       <right/>
@@ -11090,6 +11371,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16165,7 +16772,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="454">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17450,52 +18057,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="684" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="684" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="687" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="687" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="690" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="690" fontId="399" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="693" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="693" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="401" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="402" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="699" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="699" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="690" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="690" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="702" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="702" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="702" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="702" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="711" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="714" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="717" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="720" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="726" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="717" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="729" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="729" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17820,7 +18475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18252,7 +18907,7 @@
         <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>575</v>
       </c>
       <c r="AC5" t="s">
         <v>181</v>
@@ -18323,7 +18978,7 @@
         <v>441</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
         <v>182</v>
@@ -18385,7 +19040,7 @@
         <v>442</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
         <v>183</v>
@@ -18441,7 +19096,7 @@
         <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
         <v>184</v>
@@ -18493,6 +19148,9 @@
       <c r="Z9" t="s">
         <v>205</v>
       </c>
+      <c r="AB9" t="s">
+        <v>178</v>
+      </c>
       <c r="AC9" t="s">
         <v>185</v>
       </c>
@@ -18534,6 +19192,9 @@
       <c r="Z10" t="s">
         <v>253</v>
       </c>
+      <c r="AB10" t="s">
+        <v>576</v>
+      </c>
       <c r="AC10" t="s">
         <v>186</v>
       </c>
@@ -18710,7 +19371,7 @@
         <v>247</v>
       </c>
       <c r="Z15" t="s">
-        <v>101</v>
+        <v>568</v>
       </c>
       <c r="AC15" t="s">
         <v>190</v>
@@ -18742,7 +19403,7 @@
         <v>248</v>
       </c>
       <c r="Z16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AC16" t="s">
         <v>191</v>
@@ -18768,7 +19429,7 @@
         <v>39</v>
       </c>
       <c r="Z17" t="s">
-        <v>488</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s">
         <v>463</v>
@@ -18794,7 +19455,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>102</v>
+        <v>488</v>
       </c>
       <c r="AE18" t="s">
         <v>471</v>
@@ -18814,7 +19475,7 @@
         <v>459</v>
       </c>
       <c r="Z19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE19" t="s">
         <v>499</v>
@@ -18834,7 +19495,7 @@
         <v>81</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE20" t="s">
         <v>500</v>
@@ -18854,7 +19515,7 @@
         <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE21" t="s">
         <v>501</v>
@@ -18874,7 +19535,7 @@
         <v>561</v>
       </c>
       <c r="Z22" t="s">
-        <v>489</v>
+        <v>105</v>
       </c>
       <c r="AE22" t="s">
         <v>231</v>
@@ -18894,7 +19555,7 @@
         <v>466</v>
       </c>
       <c r="Z23" t="s">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="AE23" t="s">
         <v>539</v>
@@ -18914,7 +19575,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>548</v>
+        <v>106</v>
       </c>
       <c r="AE24" t="s">
         <v>540</v>
@@ -18934,7 +19595,7 @@
         <v>388</v>
       </c>
       <c r="Z25" t="s">
-        <v>107</v>
+        <v>548</v>
       </c>
       <c r="AE25" t="s">
         <v>541</v>
@@ -18954,7 +19615,7 @@
         <v>528</v>
       </c>
       <c r="Z26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE26" t="s">
         <v>232</v>
@@ -18974,7 +19635,7 @@
         <v>83</v>
       </c>
       <c r="Z27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE27" t="s">
         <v>233</v>
@@ -18994,7 +19655,7 @@
         <v>430</v>
       </c>
       <c r="Z28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -19011,7 +19672,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -19028,7 +19689,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
@@ -19042,7 +19703,7 @@
         <v>212</v>
       </c>
       <c r="Z31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -19053,7 +19714,7 @@
         <v>271</v>
       </c>
       <c r="Z32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -19064,7 +19725,7 @@
         <v>281</v>
       </c>
       <c r="Z33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -19075,7 +19736,7 @@
         <v>507</v>
       </c>
       <c r="Z34" t="s">
-        <v>549</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -19086,7 +19747,7 @@
         <v>256</v>
       </c>
       <c r="Z35" t="s">
-        <v>115</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36">
@@ -19097,7 +19758,7 @@
         <v>326</v>
       </c>
       <c r="Z36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -19108,7 +19769,7 @@
         <v>303</v>
       </c>
       <c r="Z37" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -19119,7 +19780,7 @@
         <v>257</v>
       </c>
       <c r="Z38" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -19130,7 +19791,7 @@
         <v>304</v>
       </c>
       <c r="Z39" t="s">
-        <v>334</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -19138,7 +19799,7 @@
         <v>263</v>
       </c>
       <c r="Z40" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
@@ -19146,7 +19807,7 @@
         <v>76</v>
       </c>
       <c r="Z41" t="s">
-        <v>559</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42">
@@ -19154,7 +19815,7 @@
         <v>208</v>
       </c>
       <c r="Z42" t="s">
-        <v>389</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43">
@@ -19162,7 +19823,7 @@
         <v>545</v>
       </c>
       <c r="Z43" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
@@ -19170,7 +19831,7 @@
         <v>285</v>
       </c>
       <c r="Z44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -19178,7 +19839,7 @@
         <v>296</v>
       </c>
       <c r="Z45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -19186,7 +19847,7 @@
         <v>297</v>
       </c>
       <c r="Z46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -19194,7 +19855,7 @@
         <v>339</v>
       </c>
       <c r="Z47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -19202,7 +19863,7 @@
         <v>338</v>
       </c>
       <c r="Z48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -19210,7 +19871,7 @@
         <v>207</v>
       </c>
       <c r="Z49" t="s">
-        <v>435</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -19218,7 +19879,7 @@
         <v>316</v>
       </c>
       <c r="Z50" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
@@ -19226,7 +19887,7 @@
         <v>335</v>
       </c>
       <c r="Z51" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -19234,7 +19895,7 @@
         <v>364</v>
       </c>
       <c r="Z52" t="s">
-        <v>535</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -19242,7 +19903,7 @@
         <v>298</v>
       </c>
       <c r="Z53" t="s">
-        <v>124</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54">
@@ -19250,7 +19911,7 @@
         <v>352</v>
       </c>
       <c r="Z54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -19258,7 +19919,7 @@
         <v>327</v>
       </c>
       <c r="Z55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -19266,7 +19927,7 @@
         <v>264</v>
       </c>
       <c r="Z56" t="s">
-        <v>490</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -19274,7 +19935,7 @@
         <v>288</v>
       </c>
       <c r="Z57" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58">
@@ -19282,7 +19943,7 @@
         <v>289</v>
       </c>
       <c r="Z58" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59">
@@ -19290,7 +19951,7 @@
         <v>546</v>
       </c>
       <c r="Z59" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -19298,7 +19959,7 @@
         <v>290</v>
       </c>
       <c r="Z60" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61">
@@ -19306,7 +19967,7 @@
         <v>299</v>
       </c>
       <c r="Z61" t="s">
-        <v>128</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62">
@@ -19314,7 +19975,7 @@
         <v>308</v>
       </c>
       <c r="Z62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -19322,7 +19983,7 @@
         <v>333</v>
       </c>
       <c r="Z63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -19330,7 +19991,7 @@
         <v>305</v>
       </c>
       <c r="Z64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -19338,7 +19999,7 @@
         <v>306</v>
       </c>
       <c r="Z65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -19346,7 +20007,7 @@
         <v>365</v>
       </c>
       <c r="Z66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -19354,7 +20015,7 @@
         <v>366</v>
       </c>
       <c r="Z67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -19362,7 +20023,7 @@
         <v>341</v>
       </c>
       <c r="Z68" t="s">
-        <v>436</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -19370,7 +20031,7 @@
         <v>309</v>
       </c>
       <c r="Z69" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70">
@@ -19378,7 +20039,7 @@
         <v>265</v>
       </c>
       <c r="Z70" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71">
@@ -19386,7 +20047,7 @@
         <v>529</v>
       </c>
       <c r="Z71" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -19394,7 +20055,7 @@
         <v>310</v>
       </c>
       <c r="Z72" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73">
@@ -19402,7 +20063,7 @@
         <v>406</v>
       </c>
       <c r="Z73" t="s">
-        <v>135</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74">
@@ -19410,7 +20071,7 @@
         <v>300</v>
       </c>
       <c r="Z74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -19418,7 +20079,7 @@
         <v>407</v>
       </c>
       <c r="Z75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -19426,7 +20087,7 @@
         <v>258</v>
       </c>
       <c r="Z76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -19434,7 +20095,7 @@
         <v>508</v>
       </c>
       <c r="Z77" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -19442,7 +20103,7 @@
         <v>340</v>
       </c>
       <c r="Z78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -19450,7 +20111,7 @@
         <v>276</v>
       </c>
       <c r="Z79" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -19458,7 +20119,7 @@
         <v>282</v>
       </c>
       <c r="Z80" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81">
@@ -19466,7 +20127,7 @@
         <v>287</v>
       </c>
       <c r="Z81" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82">
@@ -19474,7 +20135,7 @@
         <v>425</v>
       </c>
       <c r="Z82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -19482,7 +20143,7 @@
         <v>328</v>
       </c>
       <c r="Z83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -19490,7 +20151,7 @@
         <v>266</v>
       </c>
       <c r="Z84" t="s">
-        <v>491</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
@@ -19498,7 +20159,7 @@
         <v>277</v>
       </c>
       <c r="Z85" t="s">
-        <v>142</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86">
@@ -19506,7 +20167,7 @@
         <v>283</v>
       </c>
       <c r="Z86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
@@ -19514,7 +20175,7 @@
         <v>272</v>
       </c>
       <c r="Z87" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -19522,7 +20183,7 @@
         <v>530</v>
       </c>
       <c r="Z88" t="s">
-        <v>492</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -19530,7 +20191,7 @@
         <v>267</v>
       </c>
       <c r="Z89" t="s">
-        <v>196</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90">
@@ -19538,7 +20199,7 @@
         <v>284</v>
       </c>
       <c r="Z90" t="s">
-        <v>450</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91">
@@ -19546,7 +20207,7 @@
         <v>268</v>
       </c>
       <c r="Z91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -19554,7 +20215,7 @@
         <v>269</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93">
@@ -19562,7 +20223,7 @@
         <v>301</v>
       </c>
       <c r="Z93" t="s">
-        <v>552</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
@@ -19570,7 +20231,7 @@
         <v>307</v>
       </c>
       <c r="Z94" t="s">
-        <v>553</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -19578,7 +20239,7 @@
         <v>291</v>
       </c>
       <c r="Z95" t="s">
-        <v>211</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96">
@@ -19586,7 +20247,7 @@
         <v>336</v>
       </c>
       <c r="Z96" t="s">
-        <v>144</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97">
@@ -19594,7 +20255,7 @@
         <v>273</v>
       </c>
       <c r="Z97" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
@@ -19602,201 +20263,236 @@
         <v>274</v>
       </c>
       <c r="Z98" t="s">
-        <v>438</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>566</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>567</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>439</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>200</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>509</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>145</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>379</v>
+        <v>509</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>147</v>
+        <v>510</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>148</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>151</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>154</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>440</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>164</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/web-stuff/artifact/script/assert-web-elements.xlsx
+++ b/examples/web-stuff/artifact/script/assert-web-elements.xlsx
@@ -25,9 +25,9 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -37,7 +37,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14816" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15394" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1805,6 +1805,21 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1827,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="428" x14ac:knownFonts="1">
+  <fonts count="444" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4522,8 +4537,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="736">
+  <fills count="763">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8690,8 +8806,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="795">
+  <borders count="827">
     <border>
       <left/>
       <right/>
@@ -11371,6 +11640,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16772,7 +17367,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="470">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18105,52 +18700,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="711" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="711" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="714" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="714" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="717" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="717" fontId="415" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="720" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="720" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="417" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="418" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="726" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="726" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="717" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="717" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="729" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="729" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="729" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="729" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="738" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="741" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="744" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="747" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="753" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="744" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="756" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="756" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18613,7 +19256,7 @@
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>457</v>
+        <v>579</v>
       </c>
       <c r="L2" t="s">
         <v>311</v>
@@ -18945,7 +19588,7 @@
         <v>565</v>
       </c>
       <c r="K6" t="s">
-        <v>344</v>
+        <v>580</v>
       </c>
       <c r="L6" t="s">
         <v>458</v>
@@ -19007,7 +19650,7 @@
         <v>443</v>
       </c>
       <c r="K7" t="s">
-        <v>532</v>
+        <v>344</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -19068,6 +19711,9 @@
       <c r="I8" t="s">
         <v>324</v>
       </c>
+      <c r="K8" t="s">
+        <v>532</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -19169,7 +19815,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>448</v>
+        <v>577</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -19213,7 +19859,7 @@
         <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>578</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -19251,7 +19897,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="L12" t="s">
         <v>481</v>
@@ -19289,7 +19935,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L13" t="s">
         <v>386</v>
@@ -19301,7 +19947,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>250</v>
+        <v>581</v>
       </c>
       <c r="Z13" t="s">
         <v>322</v>
@@ -19324,7 +19970,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -19336,7 +19982,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z14" t="s">
         <v>100</v>
@@ -19358,6 +20004,9 @@
       <c r="H15" t="s">
         <v>260</v>
       </c>
+      <c r="I15" t="s">
+        <v>320</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -19368,7 +20017,7 @@
         <v>486</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z15" t="s">
         <v>568</v>
@@ -19390,6 +20039,9 @@
       <c r="H16" t="s">
         <v>261</v>
       </c>
+      <c r="I16" t="s">
+        <v>321</v>
+      </c>
       <c r="L16" t="s">
         <v>482</v>
       </c>
@@ -19400,7 +20052,7 @@
         <v>487</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z16" t="s">
         <v>101</v>
@@ -19427,6 +20079,9 @@
       </c>
       <c r="N17" t="s">
         <v>39</v>
+      </c>
+      <c r="S17" t="s">
+        <v>248</v>
       </c>
       <c r="Z17" t="s">
         <v>73</v>
